--- a/Daily/Ljung_Box/Square First Difference/keyence.xlsx
+++ b/Daily/Ljung_Box/Square First Difference/keyence.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.000623896790748023</v>
+        <v>0.006992010634237333</v>
+      </c>
+      <c r="C2">
+        <v>0.9333599615755442</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.06662586547591204</v>
+        <v>0.1835656171057981</v>
+      </c>
+      <c r="C3">
+        <v>0.9123032724969548</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9318198983266456</v>
+        <v>0.3032611809612838</v>
       </c>
       <c r="C4">
-        <v>0.3343904717347111</v>
+        <v>0.9594139778749414</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.023747566054531</v>
+        <v>0.7193755383035285</v>
       </c>
       <c r="C5">
-        <v>0.363537151228078</v>
+        <v>0.9489182026715416</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.132598189559592</v>
+        <v>1.984245602060391</v>
       </c>
       <c r="C6">
-        <v>0.5453461302458003</v>
+        <v>0.8513206378447946</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.137151200929579</v>
+        <v>2.015066601901328</v>
       </c>
       <c r="C7">
-        <v>0.7105504371155567</v>
+        <v>0.9183077234405657</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.782003524173358</v>
+        <v>3.948260803039563</v>
       </c>
       <c r="C8">
-        <v>0.3280121596360179</v>
+        <v>0.7857171214804981</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.951488563629194</v>
+        <v>3.948264898915613</v>
       </c>
       <c r="C9">
-        <v>0.4286462845729199</v>
+        <v>0.8617607384800463</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7.039522028643661</v>
+        <v>6.495218283505455</v>
       </c>
       <c r="C10">
-        <v>0.4247764819941321</v>
+        <v>0.689512199661132</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.06051626564984</v>
+        <v>6.607482304719515</v>
       </c>
       <c r="C11">
-        <v>0.5301177360283249</v>
+        <v>0.7619082724756214</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.064004033710828</v>
+        <v>6.701332119809645</v>
       </c>
       <c r="C12">
-        <v>0.6304556450952803</v>
+        <v>0.8227288706849469</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.938034903009602</v>
+        <v>6.988531137983751</v>
       </c>
       <c r="C13">
-        <v>0.6348896539631135</v>
+        <v>0.8583705325545171</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.938444764257962</v>
+        <v>7.17451215230191</v>
       </c>
       <c r="C14">
-        <v>0.7188070358721653</v>
+        <v>0.8929355184380783</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7.940224590925872</v>
+        <v>7.211915172272173</v>
       </c>
       <c r="C15">
-        <v>0.7897840143820982</v>
+        <v>0.9262334625187958</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>8.559727079214841</v>
+        <v>8.28996571186741</v>
       </c>
       <c r="C16">
-        <v>0.8053232501384936</v>
+        <v>0.9116320249121762</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8.899333032727446</v>
+        <v>9.183396203517658</v>
       </c>
       <c r="C17">
-        <v>0.8374447142037721</v>
+        <v>0.905669079247308</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>10.54999474016547</v>
+        <v>10.20830052304492</v>
       </c>
       <c r="C18">
-        <v>0.7837936402260579</v>
+        <v>0.8946485986214974</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>11.09477635793629</v>
+        <v>10.56333894927824</v>
       </c>
       <c r="C19">
-        <v>0.8035977877888771</v>
+        <v>0.9119600929682892</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>11.35730583119013</v>
+        <v>10.6391020456615</v>
       </c>
       <c r="C20">
-        <v>0.8373981716983907</v>
+        <v>0.9353822903976826</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>11.37147394717601</v>
+        <v>10.68488637560595</v>
       </c>
       <c r="C21">
-        <v>0.8779334404326988</v>
+        <v>0.9539885798396834</v>
       </c>
     </row>
   </sheetData>
